--- a/Excel/5.xlsx
+++ b/Excel/5.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinten Caliendo\Documents\TechSpring2019\Courses\CS 4605\Student Engagement Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBD6329-C8B1-406E-B932-3CE0097C162B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87D9E220-70F0-4B47-879E-4FFE717E84F3}"/>
+    <workbookView xWindow="12240" yWindow="460" windowWidth="16560" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="25">
   <si>
     <t>time</t>
   </si>
@@ -51,169 +53,67 @@
     <t>start time: 3:05</t>
   </si>
   <si>
-    <t>lecture</t>
-  </si>
-  <si>
-    <t>listening</t>
-  </si>
-  <si>
-    <t>intro lecture</t>
-  </si>
-  <si>
-    <t>explaining image</t>
-  </si>
-  <si>
-    <t>explaining game</t>
-  </si>
-  <si>
-    <t>stretching/listening</t>
-  </si>
-  <si>
-    <t>yawning</t>
-  </si>
-  <si>
-    <t>continued lecture/explaining</t>
-  </si>
-  <si>
-    <t>rubbing eyes</t>
-  </si>
-  <si>
-    <t>declining phonecall</t>
-  </si>
-  <si>
-    <t>lecture/answering question</t>
-  </si>
-  <si>
-    <t>taking notes</t>
-  </si>
-  <si>
-    <t>continued notes</t>
-  </si>
-  <si>
-    <t>notetaking</t>
-  </si>
-  <si>
-    <t>small joke</t>
-  </si>
-  <si>
-    <t>slight laugh</t>
-  </si>
-  <si>
-    <t>explaining/lecture</t>
-  </si>
-  <si>
-    <t>checking phone</t>
-  </si>
-  <si>
-    <t>on phone</t>
-  </si>
-  <si>
-    <t>looking up something on phone</t>
-  </si>
-  <si>
     <t>running demo</t>
-  </si>
-  <si>
-    <t>still on phone</t>
-  </si>
-  <si>
-    <t>ask class question</t>
-  </si>
-  <si>
-    <t>raised hand</t>
-  </si>
-  <si>
-    <t>phone use</t>
-  </si>
-  <si>
-    <t>looking at notes</t>
-  </si>
-  <si>
-    <t>writing notes</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>answering student question</t>
-  </si>
-  <si>
-    <t>checking time</t>
-  </si>
-  <si>
-    <t>showing code</t>
-  </si>
-  <si>
-    <t>joke about tensorflow</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>said 1070 or 1080</t>
   </si>
   <si>
     <t>surprised reaction</t>
   </si>
   <si>
-    <t>joke about laptop</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>typing on laptop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lecture </t>
-  </si>
-  <si>
-    <t>joke about model 10</t>
-  </si>
-  <si>
-    <t>audible laugh</t>
-  </si>
-  <si>
-    <t>demoing model</t>
-  </si>
-  <si>
-    <t>joke</t>
-  </si>
-  <si>
-    <t>continued phone use</t>
-  </si>
-  <si>
-    <t>writing/listening</t>
-  </si>
-  <si>
-    <t>reading notes</t>
-  </si>
-  <si>
-    <t>professor audio came back on</t>
-  </si>
-  <si>
     <t>IMPORTANT: prof audio cut off, I forgot to mark the time</t>
   </si>
   <si>
-    <t>class murmuring, restless</t>
+    <t>end 4:15</t>
   </si>
   <si>
-    <t>looking at phone</t>
+    <t>Lecture</t>
   </si>
   <si>
-    <t>wrap up</t>
+    <t>Q &amp; A</t>
   </si>
   <si>
-    <t>class packing up</t>
+    <t>Joke</t>
   </si>
   <si>
-    <t>end 4:15</t>
+    <t>prof audio back on</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t>Yawning</t>
+  </si>
+  <si>
+    <t>Fidgeting</t>
+  </si>
+  <si>
+    <t>Checking phone</t>
+  </si>
+  <si>
+    <t>Writing notes</t>
+  </si>
+  <si>
+    <t>Laughing</t>
+  </si>
+  <si>
+    <t>Raised hand</t>
+  </si>
+  <si>
+    <t>Reading notes</t>
+  </si>
+  <si>
+    <t>Looking around</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,22 +458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9C7D6C-9737-4EE3-84CC-B8D8E85D6BB1}">
-  <dimension ref="A1:I466"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,18 +493,18 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -613,13 +513,19 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -627,10 +533,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4">
         <v>3</v>
       </c>
@@ -638,10 +550,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
@@ -649,15 +567,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -666,10 +584,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7">
         <v>3</v>
       </c>
@@ -677,10 +601,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8">
         <v>3</v>
       </c>
@@ -688,10 +618,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
       <c r="D9">
         <v>3</v>
       </c>
@@ -699,10 +635,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -710,15 +652,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -727,10 +669,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -738,10 +686,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>110</v>
       </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
       <c r="D13">
         <v>3</v>
       </c>
@@ -749,10 +703,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>120</v>
       </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -760,10 +720,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>130</v>
       </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -771,13 +737,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
       <c r="D16">
         <v>3</v>
       </c>
@@ -785,10 +754,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>150</v>
       </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -796,10 +771,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>160</v>
       </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
       <c r="D18">
         <v>3</v>
       </c>
@@ -807,10 +788,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>170</v>
       </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
@@ -818,10 +805,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>180</v>
       </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
       <c r="D20">
         <v>3</v>
       </c>
@@ -829,12 +822,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>190</v>
       </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -843,12 +839,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>200</v>
       </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -857,10 +856,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>210</v>
       </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
       <c r="D23">
         <v>3</v>
       </c>
@@ -868,10 +873,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>220</v>
       </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
       <c r="D24">
         <v>3</v>
       </c>
@@ -879,10 +890,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>230</v>
       </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -890,10 +907,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>240</v>
       </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
       <c r="D26">
         <v>3</v>
       </c>
@@ -901,12 +924,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>250</v>
       </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -915,10 +941,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>260</v>
       </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
       <c r="D28">
         <v>3</v>
       </c>
@@ -926,10 +958,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>270</v>
       </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
       <c r="D29">
         <v>3</v>
       </c>
@@ -937,10 +975,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>280</v>
       </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
       <c r="D30">
         <v>3</v>
       </c>
@@ -948,10 +992,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>290</v>
       </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
       <c r="D31">
         <v>3</v>
       </c>
@@ -959,10 +1009,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -970,12 +1026,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>310</v>
       </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -984,15 +1043,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1001,10 +1060,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>330</v>
       </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
       <c r="D35">
         <v>3</v>
       </c>
@@ -1012,10 +1077,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>340</v>
       </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
       <c r="D36">
         <v>3</v>
       </c>
@@ -1023,10 +1094,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>350</v>
       </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
       <c r="D37">
         <v>3</v>
       </c>
@@ -1034,10 +1111,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>360</v>
       </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
       <c r="D38">
         <v>3</v>
       </c>
@@ -1045,10 +1128,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>370</v>
       </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
       <c r="D39">
         <v>3</v>
       </c>
@@ -1056,10 +1145,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>380</v>
       </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
       <c r="D40">
         <v>3</v>
       </c>
@@ -1067,10 +1162,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>390</v>
       </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
       <c r="D41">
         <v>3</v>
       </c>
@@ -1078,10 +1179,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>400</v>
       </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
       <c r="D42">
         <v>3</v>
       </c>
@@ -1089,10 +1196,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>410</v>
       </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -1100,10 +1213,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>420</v>
       </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
       <c r="D44">
         <v>3</v>
       </c>
@@ -1111,10 +1230,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>430</v>
       </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
       <c r="D45">
         <v>3</v>
       </c>
@@ -1122,10 +1247,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>440</v>
       </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
       <c r="D46">
         <v>3</v>
       </c>
@@ -1133,10 +1264,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>450</v>
       </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
       <c r="D47">
         <v>3</v>
       </c>
@@ -1144,15 +1281,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1161,12 +1298,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>470</v>
       </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1175,10 +1315,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>480</v>
       </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
       <c r="D50">
         <v>3</v>
       </c>
@@ -1186,12 +1332,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>490</v>
       </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1200,10 +1349,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>500</v>
       </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
       <c r="D52">
         <v>3</v>
       </c>
@@ -1211,12 +1366,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>510</v>
       </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1225,10 +1383,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>520</v>
       </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
       <c r="D54">
         <v>3</v>
       </c>
@@ -1236,10 +1400,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>530</v>
       </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
       <c r="D55">
         <v>3</v>
       </c>
@@ -1247,10 +1417,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>540</v>
       </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
       <c r="D56">
         <v>3</v>
       </c>
@@ -1258,10 +1434,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>550</v>
       </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
       <c r="D57">
         <v>3</v>
       </c>
@@ -1269,12 +1451,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>560</v>
       </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1283,15 +1468,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1300,10 +1485,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>580</v>
       </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
       <c r="D60">
         <v>3</v>
       </c>
@@ -1311,10 +1502,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>590</v>
       </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
       <c r="D61">
         <v>3</v>
       </c>
@@ -1322,10 +1519,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>600</v>
       </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
       <c r="D62">
         <v>3</v>
       </c>
@@ -1333,10 +1536,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>610</v>
       </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
       <c r="D63">
         <v>3</v>
       </c>
@@ -1344,10 +1553,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>620</v>
       </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -1355,10 +1570,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>630</v>
       </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -1366,10 +1587,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>640</v>
       </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -1377,10 +1604,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>650</v>
       </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -1388,10 +1621,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>660</v>
       </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
       <c r="D68">
         <v>3</v>
       </c>
@@ -1399,10 +1638,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>670</v>
       </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -1410,12 +1655,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>680</v>
       </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1424,15 +1672,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>690</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -1441,12 +1689,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>700</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -1455,10 +1706,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>710</v>
       </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -1466,10 +1723,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>720</v>
       </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -1477,10 +1740,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>730</v>
       </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -1488,10 +1757,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>740</v>
       </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -1499,10 +1774,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>750</v>
       </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -1510,10 +1791,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>760</v>
       </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -1521,10 +1808,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>770</v>
       </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -1532,15 +1825,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>780</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1549,10 +1842,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>790</v>
       </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -1560,10 +1859,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>800</v>
       </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -1571,10 +1876,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>810</v>
       </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -1582,12 +1893,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>820</v>
       </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1596,10 +1910,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>830</v>
       </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -1607,10 +1927,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>840</v>
       </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -1618,10 +1944,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>850</v>
       </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -1629,10 +1961,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>860</v>
       </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -1640,10 +1978,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>870</v>
       </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -1651,10 +1995,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>880</v>
       </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -1662,10 +2012,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>890</v>
       </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
@@ -1676,10 +2029,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>900</v>
       </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -1687,10 +2046,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>910</v>
       </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -1698,16 +2063,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>920</v>
       </c>
       <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
         <v>20</v>
       </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
       <c r="D94">
         <v>3</v>
       </c>
@@ -1715,12 +2080,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>930</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
         <v>19</v>
@@ -1732,10 +2097,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>940</v>
       </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
       <c r="D96">
         <v>3</v>
       </c>
@@ -1743,10 +2114,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>950</v>
       </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
       <c r="D97">
         <v>3</v>
       </c>
@@ -1754,10 +2131,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>960</v>
       </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
       <c r="D98">
         <v>3</v>
       </c>
@@ -1765,10 +2148,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>970</v>
       </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
       <c r="D99">
         <v>3</v>
       </c>
@@ -1776,10 +2165,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>980</v>
       </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
       <c r="D100">
         <v>3</v>
       </c>
@@ -1787,10 +2182,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>990</v>
       </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
       <c r="D101">
         <v>3</v>
       </c>
@@ -1798,10 +2199,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1000</v>
       </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
       <c r="D102">
         <v>3</v>
       </c>
@@ -1809,10 +2216,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1010</v>
       </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
       <c r="D103">
         <v>3</v>
       </c>
@@ -1820,10 +2233,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1020</v>
       </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
       <c r="D104">
         <v>3</v>
       </c>
@@ -1831,10 +2250,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1030</v>
       </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
       <c r="D105">
         <v>3</v>
       </c>
@@ -1842,10 +2267,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1040</v>
       </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
       <c r="D106">
         <v>3</v>
       </c>
@@ -1853,10 +2284,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1050</v>
       </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
       <c r="D107">
         <v>3</v>
       </c>
@@ -1864,10 +2301,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1060</v>
       </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
       <c r="D108">
         <v>3</v>
       </c>
@@ -1875,10 +2318,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1070</v>
       </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
       <c r="D109">
         <v>3</v>
       </c>
@@ -1886,10 +2335,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1080</v>
       </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
       <c r="D110">
         <v>3</v>
       </c>
@@ -1897,15 +2352,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1090</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -1914,10 +2369,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1100</v>
       </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
       <c r="D112">
         <v>3</v>
       </c>
@@ -1925,10 +2386,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1110</v>
       </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
       <c r="D113">
         <v>3</v>
       </c>
@@ -1936,10 +2403,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1120</v>
       </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
       <c r="D114">
         <v>3</v>
       </c>
@@ -1947,12 +2420,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1130</v>
       </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -1961,10 +2437,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1140</v>
       </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
       <c r="D116">
         <v>3</v>
       </c>
@@ -1972,10 +2454,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1150</v>
       </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
       <c r="D117">
         <v>3</v>
       </c>
@@ -1983,10 +2471,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1160</v>
       </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
       <c r="D118">
         <v>3</v>
       </c>
@@ -1994,10 +2488,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1170</v>
       </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
       <c r="D119">
         <v>3</v>
       </c>
@@ -2005,10 +2505,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1180</v>
       </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
       <c r="D120">
         <v>3</v>
       </c>
@@ -2016,10 +2522,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1190</v>
       </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
       <c r="D121">
         <v>3</v>
       </c>
@@ -2027,10 +2539,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1200</v>
       </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
       <c r="D122">
         <v>3</v>
       </c>
@@ -2038,10 +2556,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1210</v>
       </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
       <c r="D123">
         <v>3</v>
       </c>
@@ -2049,15 +2573,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1220</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -2065,11 +2589,20 @@
       <c r="E124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1230</v>
       </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
       <c r="D125">
         <v>3</v>
       </c>
@@ -2077,10 +2610,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1240</v>
       </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
       <c r="D126">
         <v>3</v>
       </c>
@@ -2088,10 +2627,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1250</v>
       </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
       <c r="D127">
         <v>3</v>
       </c>
@@ -2099,12 +2644,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1260</v>
       </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -2113,12 +2661,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1270</v>
       </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -2127,10 +2678,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1280</v>
       </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
       <c r="D130">
         <v>3</v>
       </c>
@@ -2138,10 +2695,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1290</v>
       </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
       <c r="D131">
         <v>3</v>
       </c>
@@ -2149,10 +2712,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1300</v>
       </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
       <c r="D132">
         <v>3</v>
       </c>
@@ -2160,12 +2729,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1310</v>
       </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -2174,10 +2746,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1320</v>
       </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
       <c r="D134">
         <v>3</v>
       </c>
@@ -2185,15 +2763,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1330</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -2202,15 +2780,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1340</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -2219,10 +2797,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1350</v>
       </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
       <c r="D137">
         <v>3</v>
       </c>
@@ -2230,12 +2814,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1360</v>
       </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -2244,10 +2831,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1370</v>
       </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
       <c r="D139">
         <v>3</v>
       </c>
@@ -2255,10 +2848,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1380</v>
       </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
       <c r="D140">
         <v>3</v>
       </c>
@@ -2266,10 +2865,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1390</v>
       </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
       <c r="D141">
         <v>3</v>
       </c>
@@ -2277,10 +2882,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1400</v>
       </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
       <c r="D142">
         <v>3</v>
       </c>
@@ -2288,12 +2899,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1410</v>
       </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -2302,10 +2916,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1420</v>
       </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
       <c r="D144">
         <v>3</v>
       </c>
@@ -2313,10 +2933,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1430</v>
       </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
       <c r="D145">
         <v>3</v>
       </c>
@@ -2324,10 +2950,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1440</v>
       </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
       <c r="D146">
         <v>3</v>
       </c>
@@ -2335,10 +2967,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1450</v>
       </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
       <c r="D147">
         <v>3</v>
       </c>
@@ -2346,10 +2984,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1460</v>
       </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
       <c r="D148">
         <v>3</v>
       </c>
@@ -2357,10 +3001,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1470</v>
       </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
       <c r="D149">
         <v>3</v>
       </c>
@@ -2368,15 +3018,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1480</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -2385,12 +3035,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1490</v>
       </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -2399,15 +3052,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1500</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -2416,10 +3069,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1510</v>
       </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
       <c r="D153">
         <v>3</v>
       </c>
@@ -2427,10 +3086,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1520</v>
       </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
       <c r="D154">
         <v>3</v>
       </c>
@@ -2438,15 +3103,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1530</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -2455,10 +3120,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1540</v>
       </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
       <c r="D156">
         <v>3</v>
       </c>
@@ -2466,16 +3137,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1550</v>
       </c>
       <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
         <v>20</v>
       </c>
-      <c r="C157" t="s">
-        <v>21</v>
-      </c>
       <c r="D157">
         <v>3</v>
       </c>
@@ -2483,12 +3154,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1560</v>
       </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -2497,10 +3171,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1570</v>
       </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
       <c r="D159">
         <v>3</v>
       </c>
@@ -2508,10 +3188,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1580</v>
       </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
       <c r="D160">
         <v>3</v>
       </c>
@@ -2519,10 +3205,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1590</v>
       </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
       <c r="D161">
         <v>3</v>
       </c>
@@ -2530,10 +3222,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1600</v>
       </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
       <c r="D162">
         <v>3</v>
       </c>
@@ -2541,10 +3239,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1610</v>
       </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
       <c r="D163">
         <v>3</v>
       </c>
@@ -2552,10 +3256,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1620</v>
       </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
       <c r="D164">
         <v>3</v>
       </c>
@@ -2563,10 +3273,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1630</v>
       </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
       <c r="D165">
         <v>3</v>
       </c>
@@ -2574,10 +3290,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1640</v>
       </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
       <c r="D166">
         <v>3</v>
       </c>
@@ -2585,10 +3307,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1650</v>
       </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
       <c r="D167">
         <v>3</v>
       </c>
@@ -2596,10 +3324,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1660</v>
       </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
       <c r="D168">
         <v>3</v>
       </c>
@@ -2607,10 +3341,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1670</v>
       </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
       <c r="D169">
         <v>3</v>
       </c>
@@ -2618,12 +3358,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1680</v>
       </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -2632,12 +3375,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1690</v>
       </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -2646,15 +3392,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1700</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -2663,10 +3409,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1710</v>
       </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
       <c r="D173">
         <v>3</v>
       </c>
@@ -2674,10 +3426,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1720</v>
       </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
       <c r="D174">
         <v>3</v>
       </c>
@@ -2685,10 +3443,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1730</v>
       </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
       <c r="D175">
         <v>3</v>
       </c>
@@ -2696,15 +3460,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1740</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -2713,15 +3477,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1750</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -2730,10 +3494,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1760</v>
       </c>
+      <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
       <c r="D178">
         <v>3</v>
       </c>
@@ -2741,10 +3511,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1770</v>
       </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
       <c r="D179">
         <v>3</v>
       </c>
@@ -2752,10 +3528,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1780</v>
       </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
       <c r="D180">
         <v>3</v>
       </c>
@@ -2763,10 +3545,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1790</v>
       </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
       <c r="D181">
         <v>3</v>
       </c>
@@ -2774,10 +3562,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1800</v>
       </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
       <c r="D182">
         <v>3</v>
       </c>
@@ -2785,10 +3579,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1810</v>
       </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
       <c r="D183">
         <v>3</v>
       </c>
@@ -2796,10 +3596,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1820</v>
       </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>14</v>
+      </c>
       <c r="D184">
         <v>3</v>
       </c>
@@ -2807,10 +3613,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1830</v>
       </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
       <c r="D185">
         <v>3</v>
       </c>
@@ -2818,10 +3630,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1840</v>
       </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
       <c r="D186">
         <v>3</v>
       </c>
@@ -2829,10 +3647,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1850</v>
       </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
       <c r="D187">
         <v>3</v>
       </c>
@@ -2840,10 +3664,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1860</v>
       </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>14</v>
+      </c>
       <c r="D188">
         <v>3</v>
       </c>
@@ -2851,10 +3681,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1870</v>
       </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
       <c r="D189">
         <v>3</v>
       </c>
@@ -2862,10 +3698,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1880</v>
       </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
       <c r="D190">
         <v>3</v>
       </c>
@@ -2873,10 +3715,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1890</v>
       </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
       <c r="D191">
         <v>3</v>
       </c>
@@ -2884,10 +3732,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1900</v>
       </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
       <c r="D192">
         <v>3</v>
       </c>
@@ -2895,10 +3749,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1910</v>
       </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
       <c r="D193">
         <v>3</v>
       </c>
@@ -2906,15 +3766,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1920</v>
       </c>
       <c r="B194" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D194">
         <v>4</v>
@@ -2922,11 +3782,20 @@
       <c r="E194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1930</v>
       </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
       <c r="D195">
         <v>3</v>
       </c>
@@ -2934,15 +3803,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1940</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -2951,15 +3820,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1950</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -2968,15 +3837,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1960</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -2985,15 +3854,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1970</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -3002,10 +3871,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1980</v>
       </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
       <c r="D200">
         <v>3</v>
       </c>
@@ -3013,10 +3888,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1990</v>
       </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
       <c r="D201">
         <v>3</v>
       </c>
@@ -3024,10 +3905,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2000</v>
       </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
       <c r="D202">
         <v>3</v>
       </c>
@@ -3035,10 +3922,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2010</v>
       </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
       <c r="D203">
         <v>3</v>
       </c>
@@ -3046,10 +3939,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2020</v>
       </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
       <c r="D204">
         <v>3</v>
       </c>
@@ -3057,15 +3956,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2030</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -3074,15 +3973,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2040</v>
       </c>
       <c r="B206" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -3091,10 +3990,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2050</v>
       </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
       <c r="D207">
         <v>3</v>
       </c>
@@ -3102,10 +4007,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2060</v>
       </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
       <c r="D208">
         <v>3</v>
       </c>
@@ -3113,10 +4024,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2070</v>
       </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
       <c r="D209">
         <v>3</v>
       </c>
@@ -3124,10 +4041,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2080</v>
       </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210" t="s">
+        <v>14</v>
+      </c>
       <c r="D210">
         <v>3</v>
       </c>
@@ -3135,10 +4058,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2090</v>
       </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
       <c r="D211">
         <v>3</v>
       </c>
@@ -3146,15 +4075,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2100</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -3163,10 +4092,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2110</v>
       </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
       <c r="D213">
         <v>3</v>
       </c>
@@ -3174,10 +4109,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2120</v>
       </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>14</v>
+      </c>
       <c r="D214">
         <v>3</v>
       </c>
@@ -3185,15 +4126,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2130</v>
       </c>
       <c r="B215" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -3202,12 +4143,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2140</v>
       </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -3216,15 +4160,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2150</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -3233,10 +4177,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2160</v>
       </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
       <c r="D218">
         <v>3</v>
       </c>
@@ -3244,10 +4194,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2170</v>
       </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
       <c r="D219">
         <v>3</v>
       </c>
@@ -3255,10 +4211,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2180</v>
       </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
       <c r="D220">
         <v>3</v>
       </c>
@@ -3266,12 +4228,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2190</v>
       </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -3280,10 +4245,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2200</v>
       </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
       <c r="D222">
         <v>3</v>
       </c>
@@ -3291,10 +4262,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2210</v>
       </c>
+      <c r="B223" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s">
+        <v>18</v>
+      </c>
       <c r="D223">
         <v>3</v>
       </c>
@@ -3302,10 +4279,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2220</v>
       </c>
+      <c r="B224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
       <c r="D224">
         <v>3</v>
       </c>
@@ -3313,10 +4296,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2230</v>
       </c>
+      <c r="B225" t="s">
+        <v>10</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
       <c r="D225">
         <v>3</v>
       </c>
@@ -3324,10 +4313,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2240</v>
       </c>
+      <c r="B226" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s">
+        <v>18</v>
+      </c>
       <c r="D226">
         <v>3</v>
       </c>
@@ -3335,10 +4330,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2250</v>
       </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>18</v>
+      </c>
       <c r="D227">
         <v>3</v>
       </c>
@@ -3346,10 +4347,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2260</v>
       </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
+      </c>
       <c r="D228">
         <v>3</v>
       </c>
@@ -3357,12 +4364,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2270</v>
       </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
       <c r="C229" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D229">
         <v>3</v>
@@ -3371,10 +4381,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2280</v>
       </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>18</v>
+      </c>
       <c r="D230">
         <v>3</v>
       </c>
@@ -3382,10 +4398,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2290</v>
       </c>
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
       <c r="D231">
         <v>3</v>
       </c>
@@ -3393,10 +4415,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2300</v>
       </c>
+      <c r="B232" t="s">
+        <v>10</v>
+      </c>
+      <c r="C232" t="s">
+        <v>18</v>
+      </c>
       <c r="D232">
         <v>3</v>
       </c>
@@ -3404,10 +4432,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2310</v>
       </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>18</v>
+      </c>
       <c r="D233">
         <v>3</v>
       </c>
@@ -3415,10 +4449,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2320</v>
       </c>
+      <c r="B234" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" t="s">
+        <v>18</v>
+      </c>
       <c r="D234">
         <v>3</v>
       </c>
@@ -3426,10 +4466,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2330</v>
       </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="s">
+        <v>18</v>
+      </c>
       <c r="D235">
         <v>3</v>
       </c>
@@ -3437,10 +4483,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2340</v>
       </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C236" t="s">
+        <v>18</v>
+      </c>
       <c r="D236">
         <v>3</v>
       </c>
@@ -3448,15 +4500,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2350</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D237">
         <v>3</v>
@@ -3465,10 +4517,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2360</v>
       </c>
+      <c r="B238" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" t="s">
+        <v>14</v>
+      </c>
       <c r="D238">
         <v>3</v>
       </c>
@@ -3476,10 +4534,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2370</v>
       </c>
+      <c r="B239" t="s">
+        <v>10</v>
+      </c>
+      <c r="C239" t="s">
+        <v>14</v>
+      </c>
       <c r="D239">
         <v>3</v>
       </c>
@@ -3487,10 +4551,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2380</v>
       </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>14</v>
+      </c>
       <c r="D240">
         <v>3</v>
       </c>
@@ -3498,10 +4568,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2390</v>
       </c>
+      <c r="B241" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" t="s">
+        <v>14</v>
+      </c>
       <c r="D241">
         <v>3</v>
       </c>
@@ -3509,15 +4585,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2400</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D242">
         <v>3</v>
@@ -3526,10 +4602,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2410</v>
       </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
       <c r="D243">
         <v>3</v>
       </c>
@@ -3537,10 +4619,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2420</v>
       </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>14</v>
+      </c>
       <c r="D244">
         <v>3</v>
       </c>
@@ -3548,10 +4636,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2430</v>
       </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>14</v>
+      </c>
       <c r="D245">
         <v>3</v>
       </c>
@@ -3559,10 +4653,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2440</v>
       </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>14</v>
+      </c>
       <c r="D246">
         <v>3</v>
       </c>
@@ -3570,10 +4670,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2450</v>
       </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>14</v>
+      </c>
       <c r="D247">
         <v>3</v>
       </c>
@@ -3581,10 +4687,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2460</v>
       </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>14</v>
+      </c>
       <c r="D248">
         <v>3</v>
       </c>
@@ -3592,12 +4704,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2470</v>
       </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -3606,10 +4721,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2480</v>
       </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>22</v>
+      </c>
       <c r="D250">
         <v>3</v>
       </c>
@@ -3617,12 +4738,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2490</v>
       </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D251">
         <v>3</v>
@@ -3631,10 +4755,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2500</v>
       </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>14</v>
+      </c>
       <c r="D252">
         <v>3</v>
       </c>
@@ -3642,10 +4772,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2510</v>
       </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" t="s">
+        <v>14</v>
+      </c>
       <c r="D253">
         <v>3</v>
       </c>
@@ -3653,10 +4789,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2520</v>
       </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>14</v>
+      </c>
       <c r="D254">
         <v>3</v>
       </c>
@@ -3664,10 +4806,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2530</v>
       </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>14</v>
+      </c>
       <c r="D255">
         <v>3</v>
       </c>
@@ -3675,10 +4823,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2540</v>
       </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
       <c r="D256">
         <v>3</v>
       </c>
@@ -3686,10 +4840,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2550</v>
       </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>14</v>
+      </c>
       <c r="D257">
         <v>3</v>
       </c>
@@ -3697,10 +4857,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2560</v>
       </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
       <c r="D258">
         <v>3</v>
       </c>
@@ -3708,10 +4874,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2570</v>
       </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>14</v>
+      </c>
       <c r="D259">
         <v>3</v>
       </c>
@@ -3719,10 +4891,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2580</v>
       </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>14</v>
+      </c>
       <c r="D260">
         <v>3</v>
       </c>
@@ -3730,10 +4908,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2590</v>
       </c>
+      <c r="B261" t="s">
+        <v>10</v>
+      </c>
+      <c r="C261" t="s">
+        <v>14</v>
+      </c>
       <c r="D261">
         <v>3</v>
       </c>
@@ -3741,10 +4925,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2600</v>
       </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>14</v>
+      </c>
       <c r="D262">
         <v>3</v>
       </c>
@@ -3752,10 +4942,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2610</v>
       </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>14</v>
+      </c>
       <c r="D263">
         <v>3</v>
       </c>
@@ -3763,10 +4959,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2620</v>
       </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>14</v>
+      </c>
       <c r="D264">
         <v>3</v>
       </c>
@@ -3774,10 +4976,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2630</v>
       </c>
+      <c r="B265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265" t="s">
+        <v>14</v>
+      </c>
       <c r="D265">
         <v>3</v>
       </c>
@@ -3785,12 +4993,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2640</v>
       </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -3799,10 +5010,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2650</v>
       </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>22</v>
+      </c>
       <c r="D267">
         <v>3</v>
       </c>
@@ -3810,10 +5027,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2660</v>
       </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
       <c r="D268">
         <v>3</v>
       </c>
@@ -3821,10 +5044,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2670</v>
       </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>22</v>
+      </c>
       <c r="D269">
         <v>3</v>
       </c>
@@ -3832,10 +5061,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2680</v>
       </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
       <c r="D270">
         <v>3</v>
       </c>
@@ -3843,10 +5078,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2690</v>
       </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
       <c r="D271">
         <v>3</v>
       </c>
@@ -3854,10 +5095,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2700</v>
       </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
       <c r="D272">
         <v>3</v>
       </c>
@@ -3865,10 +5112,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2710</v>
       </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
       <c r="D273">
         <v>3</v>
       </c>
@@ -3876,10 +5129,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2720</v>
       </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
       <c r="D274">
         <v>3</v>
       </c>
@@ -3887,10 +5146,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2730</v>
       </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
       <c r="D275">
         <v>3</v>
       </c>
@@ -3898,10 +5163,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2740</v>
       </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" t="s">
+        <v>22</v>
+      </c>
       <c r="D276">
         <v>3</v>
       </c>
@@ -3909,15 +5180,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2750</v>
       </c>
       <c r="B277" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -3926,10 +5197,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2760</v>
       </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" t="s">
+        <v>14</v>
+      </c>
       <c r="D278">
         <v>3</v>
       </c>
@@ -3937,10 +5214,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2770</v>
       </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>14</v>
+      </c>
       <c r="D279">
         <v>3</v>
       </c>
@@ -3948,12 +5231,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2780</v>
       </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
       <c r="C280" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -3962,10 +5248,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2790</v>
       </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>19</v>
+      </c>
       <c r="D281">
         <v>3</v>
       </c>
@@ -3973,12 +5265,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2800</v>
       </c>
+      <c r="B282" t="s">
+        <v>10</v>
+      </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -3987,10 +5282,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2810</v>
       </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
       <c r="D283">
         <v>3</v>
       </c>
@@ -3998,10 +5299,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2820</v>
       </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
       <c r="D284">
         <v>3</v>
       </c>
@@ -4009,10 +5316,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2830</v>
       </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
       <c r="D285">
         <v>3</v>
       </c>
@@ -4020,12 +5333,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2840</v>
       </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
       <c r="C286" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -4034,10 +5350,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2850</v>
       </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>19</v>
+      </c>
       <c r="D287">
         <v>3</v>
       </c>
@@ -4045,10 +5367,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2860</v>
       </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>19</v>
+      </c>
       <c r="D288">
         <v>3</v>
       </c>
@@ -4056,10 +5384,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2870</v>
       </c>
+      <c r="B289" t="s">
+        <v>10</v>
+      </c>
+      <c r="C289" t="s">
+        <v>19</v>
+      </c>
       <c r="D289">
         <v>3</v>
       </c>
@@ -4067,10 +5401,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2880</v>
       </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>19</v>
+      </c>
       <c r="D290">
         <v>3</v>
       </c>
@@ -4078,12 +5418,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2890</v>
       </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
       <c r="C291" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -4092,10 +5435,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2900</v>
       </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" t="s">
+        <v>19</v>
+      </c>
       <c r="D292">
         <v>3</v>
       </c>
@@ -4103,15 +5452,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2910</v>
       </c>
       <c r="B293" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -4120,10 +5469,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2920</v>
       </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
       <c r="D294">
         <v>3</v>
       </c>
@@ -4131,10 +5486,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2930</v>
       </c>
+      <c r="B295" t="s">
+        <v>10</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
       <c r="D295">
         <v>3</v>
       </c>
@@ -4142,10 +5503,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2940</v>
       </c>
+      <c r="B296" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
       <c r="D296">
         <v>3</v>
       </c>
@@ -4153,10 +5520,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2950</v>
       </c>
+      <c r="B297" t="s">
+        <v>10</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
       <c r="D297">
         <v>3</v>
       </c>
@@ -4164,10 +5537,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2960</v>
       </c>
+      <c r="B298" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
       <c r="D298">
         <v>3</v>
       </c>
@@ -4175,10 +5554,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2970</v>
       </c>
+      <c r="B299" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
       <c r="D299">
         <v>3</v>
       </c>
@@ -4186,10 +5571,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2980</v>
       </c>
+      <c r="B300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
       <c r="D300">
         <v>3</v>
       </c>
@@ -4197,10 +5588,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2990</v>
       </c>
+      <c r="B301" t="s">
+        <v>10</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
       <c r="D301">
         <v>3</v>
       </c>
@@ -4208,10 +5605,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3000</v>
       </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
       <c r="D302">
         <v>3</v>
       </c>
@@ -4219,10 +5622,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3010</v>
       </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
       <c r="D303">
         <v>3</v>
       </c>
@@ -4230,10 +5639,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3020</v>
       </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
       <c r="D304">
         <v>3</v>
       </c>
@@ -4241,10 +5656,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3030</v>
       </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>14</v>
+      </c>
       <c r="D305">
         <v>3</v>
       </c>
@@ -4252,10 +5673,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3040</v>
       </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" t="s">
+        <v>14</v>
+      </c>
       <c r="D306">
         <v>3</v>
       </c>
@@ -4263,10 +5690,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3050</v>
       </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>14</v>
+      </c>
       <c r="D307">
         <v>3</v>
       </c>
@@ -4274,10 +5707,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3060</v>
       </c>
+      <c r="B308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" t="s">
+        <v>14</v>
+      </c>
       <c r="D308">
         <v>3</v>
       </c>
@@ -4285,10 +5724,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3070</v>
       </c>
+      <c r="B309" t="s">
+        <v>10</v>
+      </c>
+      <c r="C309" t="s">
+        <v>14</v>
+      </c>
       <c r="D309">
         <v>3</v>
       </c>
@@ -4296,10 +5741,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3080</v>
       </c>
+      <c r="B310" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" t="s">
+        <v>14</v>
+      </c>
       <c r="D310">
         <v>3</v>
       </c>
@@ -4307,10 +5758,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3090</v>
       </c>
+      <c r="B311" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" t="s">
+        <v>14</v>
+      </c>
       <c r="D311">
         <v>3</v>
       </c>
@@ -4318,10 +5775,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3100</v>
       </c>
+      <c r="B312" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
       <c r="D312">
         <v>3</v>
       </c>
@@ -4329,10 +5792,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3110</v>
       </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
       <c r="D313">
         <v>3</v>
       </c>
@@ -4340,10 +5809,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3120</v>
       </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
       <c r="D314">
         <v>3</v>
       </c>
@@ -4351,10 +5826,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3130</v>
       </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
       <c r="D315">
         <v>3</v>
       </c>
@@ -4362,10 +5843,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3140</v>
       </c>
+      <c r="B316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
       <c r="D316">
         <v>3</v>
       </c>
@@ -4373,15 +5860,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3150</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -4390,10 +5877,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3160</v>
       </c>
+      <c r="B318" t="s">
+        <v>10</v>
+      </c>
+      <c r="C318" t="s">
+        <v>22</v>
+      </c>
       <c r="D318">
         <v>3</v>
       </c>
@@ -4401,10 +5894,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3170</v>
       </c>
+      <c r="B319" t="s">
+        <v>10</v>
+      </c>
+      <c r="C319" t="s">
+        <v>22</v>
+      </c>
       <c r="D319">
         <v>3</v>
       </c>
@@ -4412,12 +5911,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3180</v>
       </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
       <c r="C320" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -4426,10 +5928,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3190</v>
       </c>
+      <c r="B321" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>16</v>
+      </c>
       <c r="D321">
         <v>3</v>
       </c>
@@ -4437,12 +5945,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3200</v>
       </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -4451,10 +5962,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3210</v>
       </c>
+      <c r="B323" t="s">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s">
+        <v>19</v>
+      </c>
       <c r="D323">
         <v>3</v>
       </c>
@@ -4462,10 +5979,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3220</v>
       </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>19</v>
+      </c>
       <c r="D324">
         <v>3</v>
       </c>
@@ -4473,10 +5996,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3230</v>
       </c>
+      <c r="B325" t="s">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s">
+        <v>19</v>
+      </c>
       <c r="D325">
         <v>3</v>
       </c>
@@ -4484,10 +6013,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3240</v>
       </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>19</v>
+      </c>
       <c r="D326">
         <v>3</v>
       </c>
@@ -4495,12 +6030,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3250</v>
       </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
       <c r="C327" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D327">
         <v>3</v>
@@ -4509,10 +6047,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3260</v>
       </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>22</v>
+      </c>
       <c r="D328">
         <v>3</v>
       </c>
@@ -4520,10 +6064,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3270</v>
       </c>
+      <c r="B329" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" t="s">
+        <v>22</v>
+      </c>
       <c r="D329">
         <v>3</v>
       </c>
@@ -4531,10 +6081,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3280</v>
       </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>22</v>
+      </c>
       <c r="D330">
         <v>3</v>
       </c>
@@ -4542,15 +6098,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3290</v>
       </c>
       <c r="B331" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -4559,10 +6115,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3300</v>
       </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>14</v>
+      </c>
       <c r="D332">
         <v>3</v>
       </c>
@@ -4570,10 +6132,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3310</v>
       </c>
+      <c r="B333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" t="s">
+        <v>14</v>
+      </c>
       <c r="D333">
         <v>3</v>
       </c>
@@ -4581,10 +6149,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3320</v>
       </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s">
+        <v>14</v>
+      </c>
       <c r="D334">
         <v>3</v>
       </c>
@@ -4592,10 +6166,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3330</v>
       </c>
+      <c r="B335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s">
+        <v>14</v>
+      </c>
       <c r="D335">
         <v>3</v>
       </c>
@@ -4603,10 +6183,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3340</v>
       </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s">
+        <v>14</v>
+      </c>
       <c r="D336">
         <v>3</v>
       </c>
@@ -4614,10 +6200,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3350</v>
       </c>
+      <c r="B337" t="s">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s">
+        <v>14</v>
+      </c>
       <c r="D337">
         <v>3</v>
       </c>
@@ -4625,10 +6217,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3360</v>
       </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>14</v>
+      </c>
       <c r="D338">
         <v>3</v>
       </c>
@@ -4636,10 +6234,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3370</v>
       </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>14</v>
+      </c>
       <c r="D339">
         <v>3</v>
       </c>
@@ -4647,10 +6251,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3380</v>
       </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
       <c r="D340">
         <v>3</v>
       </c>
@@ -4658,12 +6268,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3390</v>
       </c>
       <c r="B341" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C341" t="s">
+        <v>14</v>
       </c>
       <c r="D341">
         <v>3</v>
@@ -4671,11 +6284,20 @@
       <c r="E341">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3400</v>
       </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" t="s">
+        <v>14</v>
+      </c>
       <c r="D342">
         <v>3</v>
       </c>
@@ -4683,10 +6305,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3410</v>
       </c>
+      <c r="B343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" t="s">
+        <v>14</v>
+      </c>
       <c r="D343">
         <v>3</v>
       </c>
@@ -4694,10 +6322,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3420</v>
       </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" t="s">
+        <v>14</v>
+      </c>
       <c r="D344">
         <v>3</v>
       </c>
@@ -4705,15 +6339,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3430</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C345" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D345">
         <v>3</v>
@@ -4722,10 +6356,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3440</v>
       </c>
+      <c r="B346" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" t="s">
+        <v>14</v>
+      </c>
       <c r="D346">
         <v>3</v>
       </c>
@@ -4733,12 +6373,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3450</v>
       </c>
+      <c r="B347" t="s">
+        <v>10</v>
+      </c>
       <c r="C347" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -4747,10 +6390,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3460</v>
       </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+      <c r="C348" t="s">
+        <v>18</v>
+      </c>
       <c r="D348">
         <v>3</v>
       </c>
@@ -4758,10 +6407,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3470</v>
       </c>
+      <c r="B349" t="s">
+        <v>10</v>
+      </c>
+      <c r="C349" t="s">
+        <v>18</v>
+      </c>
       <c r="D349">
         <v>3</v>
       </c>
@@ -4769,12 +6424,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3480</v>
       </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
       <c r="C350" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -4783,596 +6441,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3490</v>
       </c>
       <c r="B351" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C351" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D351">
         <v>3</v>
       </c>
       <c r="E351">
         <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355">
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361">
-        <v>3590</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368">
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375">
-        <v>3730</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384">
-        <v>3820</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385">
-        <v>3830</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <v>3850</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407">
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>4070</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>4080</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414">
-        <v>4120</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416">
-        <v>4140</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419">
-        <v>4170</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441">
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445">
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455">
-        <v>4530</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461">
-        <v>4590</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463">
-        <v>4610</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465">
-        <v>4630</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466">
-        <v>4640</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/5.xlsx
+++ b/Excel/5.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryprouty/Desktop/MUC-Project/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gopal\Documents\School\Classes\Graduate_Classes\UbiquitousComputing\MUC-Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF2D17F-1122-46DF-A25F-6689E060E8C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="460" windowWidth="16560" windowHeight="16480"/>
+    <workbookView xWindow="16500" yWindow="225" windowWidth="10770" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,21 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="25">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>class activity</t>
-  </si>
-  <si>
-    <t>student activity</t>
-  </si>
-  <si>
-    <t>valence</t>
-  </si>
-  <si>
-    <t>arousal</t>
-  </si>
   <si>
     <t>start time: 3:05</t>
   </si>
@@ -109,11 +89,26 @@
   <si>
     <t>Other</t>
   </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Activity </t>
+  </si>
+  <si>
+    <t>Specific Behvaior</t>
+  </si>
+  <si>
+    <t>Valence</t>
+  </si>
+  <si>
+    <t>Arousal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,53 +453,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -513,18 +508,18 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -533,15 +528,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -550,15 +545,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -567,15 +562,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -584,15 +579,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -601,15 +596,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -618,15 +613,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -635,15 +630,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -652,15 +647,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -669,15 +664,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -686,15 +681,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -703,15 +698,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -720,15 +715,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -737,15 +732,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -754,15 +749,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -771,15 +766,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -788,15 +783,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -805,15 +800,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -822,16 +817,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
       <c r="D21">
         <v>3</v>
       </c>
@@ -839,15 +834,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -856,15 +851,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -873,15 +868,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -890,15 +885,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -907,15 +902,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -924,15 +919,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -941,15 +936,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -958,15 +953,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -975,15 +970,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -992,15 +987,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1009,15 +1004,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1026,15 +1021,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1043,15 +1038,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1060,15 +1055,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1077,15 +1072,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1094,15 +1089,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1111,15 +1106,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1128,15 +1123,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1145,15 +1140,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1162,15 +1157,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1179,15 +1174,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1196,15 +1191,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1213,15 +1208,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1230,15 +1225,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>430</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1247,15 +1242,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>440</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1264,15 +1259,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>450</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1281,15 +1276,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>460</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1298,15 +1293,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>470</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1315,15 +1310,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>480</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1332,15 +1327,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>490</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -1349,15 +1344,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1366,15 +1361,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>510</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1383,15 +1378,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>520</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1400,15 +1395,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1417,15 +1412,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>540</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1434,15 +1429,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>550</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1451,15 +1446,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>560</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1468,15 +1463,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>570</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1485,15 +1480,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>580</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1502,15 +1497,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>590</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1519,15 +1514,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>600</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1536,15 +1531,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>610</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -1553,15 +1548,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>620</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -1570,15 +1565,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>630</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -1587,15 +1582,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>640</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -1604,15 +1599,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>650</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -1621,15 +1616,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>660</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -1638,15 +1633,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>670</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -1655,15 +1650,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>680</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -1672,15 +1667,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>690</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -1689,15 +1684,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>700</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -1706,15 +1701,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>710</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -1723,15 +1718,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>720</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -1740,15 +1735,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>730</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -1757,15 +1752,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>740</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1774,15 +1769,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>750</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1791,15 +1786,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>760</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1808,15 +1803,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>770</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -1825,15 +1820,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>780</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1842,15 +1837,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>790</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1859,15 +1854,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>800</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1876,15 +1871,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>810</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -1893,15 +1888,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>820</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1910,15 +1905,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>830</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1927,15 +1922,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>840</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1944,15 +1939,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>850</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1961,15 +1956,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>860</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1978,15 +1973,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>870</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1995,15 +1990,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>880</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -2012,15 +2007,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>890</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -2029,15 +2024,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>900</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -2046,15 +2041,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>910</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -2063,15 +2058,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>920</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -2080,15 +2075,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>930</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -2097,15 +2092,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>940</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -2114,15 +2109,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>950</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -2131,15 +2126,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>960</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -2148,15 +2143,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>970</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -2165,15 +2160,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>980</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2182,15 +2177,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>990</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -2199,15 +2194,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1000</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -2216,15 +2211,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1010</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -2233,15 +2228,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1020</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -2250,15 +2245,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1030</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2267,15 +2262,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1040</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2284,15 +2279,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1050</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -2301,15 +2296,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1060</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>3</v>
@@ -2318,15 +2313,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1070</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -2335,15 +2330,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1080</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -2352,15 +2347,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1090</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -2369,15 +2364,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1100</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -2386,15 +2381,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1110</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -2403,15 +2398,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1120</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -2420,15 +2415,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1130</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -2437,15 +2432,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1140</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -2454,15 +2449,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1150</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -2471,15 +2466,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1160</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -2488,15 +2483,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1170</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -2505,15 +2500,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1180</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>3</v>
@@ -2522,15 +2517,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1190</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -2539,15 +2534,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1200</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -2556,15 +2551,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1210</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -2573,15 +2568,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1220</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -2590,18 +2585,18 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1230</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -2610,15 +2605,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1240</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -2627,15 +2622,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1250</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -2644,15 +2639,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1260</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -2661,15 +2656,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1270</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D129">
         <v>3</v>
@@ -2678,15 +2673,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1280</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -2695,15 +2690,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1290</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -2712,15 +2707,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1300</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -2729,15 +2724,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1310</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -2746,15 +2741,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1320</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -2763,15 +2758,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1330</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>3</v>
@@ -2780,15 +2775,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1340</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -2797,15 +2792,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1350</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137">
         <v>3</v>
@@ -2814,15 +2809,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1360</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D138">
         <v>3</v>
@@ -2831,15 +2826,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1370</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -2848,15 +2843,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1380</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -2865,15 +2860,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1390</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -2882,15 +2877,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1400</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -2899,15 +2894,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1410</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -2916,15 +2911,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1420</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -2933,15 +2928,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1430</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -2950,15 +2945,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1440</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -2967,15 +2962,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1450</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D147">
         <v>3</v>
@@ -2984,15 +2979,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1460</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -3001,15 +2996,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1470</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -3018,15 +3013,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1480</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -3035,15 +3030,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1490</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D151">
         <v>3</v>
@@ -3052,15 +3047,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1500</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -3069,15 +3064,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1510</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -3086,15 +3081,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1520</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -3103,15 +3098,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1530</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -3120,15 +3115,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1540</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -3137,15 +3132,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1550</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -3154,15 +3149,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1560</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -3171,15 +3166,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1570</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -3188,15 +3183,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1580</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -3205,15 +3200,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1590</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -3222,15 +3217,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1600</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -3239,15 +3234,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1610</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -3256,15 +3251,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1620</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -3273,15 +3268,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1630</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -3290,15 +3285,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1640</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -3307,15 +3302,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1650</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -3324,15 +3319,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1660</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -3341,15 +3336,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1670</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -3358,16 +3353,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1680</v>
       </c>
       <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
         <v>10</v>
       </c>
-      <c r="C170" t="s">
-        <v>15</v>
-      </c>
       <c r="D170">
         <v>3</v>
       </c>
@@ -3375,15 +3370,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1690</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -3392,15 +3387,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1700</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -3409,15 +3404,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1710</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -3426,15 +3421,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1720</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -3443,15 +3438,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1730</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -3460,15 +3455,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1740</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -3477,15 +3472,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1750</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -3494,15 +3489,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1760</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -3511,15 +3506,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1770</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -3528,15 +3523,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1780</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -3545,15 +3540,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1790</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -3562,15 +3557,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1800</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -3579,15 +3574,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1810</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -3596,15 +3591,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1820</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -3613,15 +3608,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1830</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -3630,15 +3625,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1840</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -3647,15 +3642,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1850</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -3664,15 +3659,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1860</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -3681,15 +3676,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1870</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -3698,15 +3693,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1880</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -3715,15 +3710,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1890</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -3732,15 +3727,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1900</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -3749,15 +3744,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1910</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -3766,15 +3761,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1920</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D194">
         <v>4</v>
@@ -3783,18 +3778,18 @@
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1930</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -3803,15 +3798,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1940</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>4</v>
@@ -3820,15 +3815,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1950</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -3837,15 +3832,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1960</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -3854,15 +3849,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1970</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -3871,15 +3866,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1980</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -3888,15 +3883,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1990</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D201">
         <v>3</v>
@@ -3905,15 +3900,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2000</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -3922,15 +3917,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2010</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -3939,15 +3934,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2020</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D204">
         <v>3</v>
@@ -3956,15 +3951,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2030</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D205">
         <v>4</v>
@@ -3973,15 +3968,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2040</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D206">
         <v>3</v>
@@ -3990,15 +3985,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2050</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -4007,15 +4002,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2060</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D208">
         <v>3</v>
@@ -4024,15 +4019,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2070</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -4041,15 +4036,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2080</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D210">
         <v>3</v>
@@ -4058,15 +4053,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2090</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D211">
         <v>3</v>
@@ -4075,15 +4070,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2100</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D212">
         <v>3</v>
@@ -4092,15 +4087,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2110</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D213">
         <v>3</v>
@@ -4109,15 +4104,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2120</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D214">
         <v>3</v>
@@ -4126,15 +4121,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2130</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -4143,15 +4138,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2140</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -4160,15 +4155,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2150</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -4177,15 +4172,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2160</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -4194,15 +4189,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2170</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -4211,15 +4206,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2180</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D220">
         <v>3</v>
@@ -4228,15 +4223,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2190</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D221">
         <v>3</v>
@@ -4245,15 +4240,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2200</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D222">
         <v>3</v>
@@ -4262,15 +4257,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2210</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D223">
         <v>3</v>
@@ -4279,15 +4274,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2220</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D224">
         <v>3</v>
@@ -4296,15 +4291,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2230</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -4313,15 +4308,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2240</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D226">
         <v>3</v>
@@ -4330,15 +4325,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2250</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D227">
         <v>3</v>
@@ -4347,15 +4342,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2260</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D228">
         <v>3</v>
@@ -4364,15 +4359,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2270</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D229">
         <v>3</v>
@@ -4381,15 +4376,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2280</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D230">
         <v>3</v>
@@ -4398,15 +4393,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2290</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D231">
         <v>3</v>
@@ -4415,15 +4410,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2300</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D232">
         <v>3</v>
@@ -4432,15 +4427,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2310</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D233">
         <v>3</v>
@@ -4449,15 +4444,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2320</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D234">
         <v>3</v>
@@ -4466,15 +4461,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2330</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D235">
         <v>3</v>
@@ -4483,15 +4478,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2340</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D236">
         <v>3</v>
@@ -4500,15 +4495,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2350</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D237">
         <v>3</v>
@@ -4517,15 +4512,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2360</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D238">
         <v>3</v>
@@ -4534,15 +4529,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2370</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D239">
         <v>3</v>
@@ -4551,15 +4546,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2380</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -4568,15 +4563,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2390</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D241">
         <v>3</v>
@@ -4585,15 +4580,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2400</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D242">
         <v>3</v>
@@ -4602,15 +4597,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2410</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D243">
         <v>3</v>
@@ -4619,15 +4614,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2420</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D244">
         <v>3</v>
@@ -4636,15 +4631,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2430</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D245">
         <v>3</v>
@@ -4653,15 +4648,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2440</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D246">
         <v>3</v>
@@ -4670,15 +4665,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2450</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D247">
         <v>3</v>
@@ -4687,15 +4682,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2460</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -4704,15 +4699,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2470</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D249">
         <v>3</v>
@@ -4721,15 +4716,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2480</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -4738,15 +4733,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2490</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D251">
         <v>3</v>
@@ -4755,15 +4750,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2500</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D252">
         <v>3</v>
@@ -4772,15 +4767,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2510</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>3</v>
@@ -4789,15 +4784,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2520</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -4806,15 +4801,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2530</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D255">
         <v>3</v>
@@ -4823,15 +4818,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2540</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D256">
         <v>3</v>
@@ -4840,15 +4835,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2550</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D257">
         <v>3</v>
@@ -4857,15 +4852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2560</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D258">
         <v>3</v>
@@ -4874,15 +4869,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2570</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D259">
         <v>3</v>
@@ -4891,15 +4886,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2580</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D260">
         <v>3</v>
@@ -4908,15 +4903,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2590</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D261">
         <v>3</v>
@@ -4925,15 +4920,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2600</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -4942,15 +4937,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2610</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D263">
         <v>3</v>
@@ -4959,15 +4954,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2620</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D264">
         <v>3</v>
@@ -4976,15 +4971,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2630</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D265">
         <v>3</v>
@@ -4993,15 +4988,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2640</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D266">
         <v>3</v>
@@ -5010,15 +5005,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2650</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D267">
         <v>3</v>
@@ -5027,15 +5022,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2660</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D268">
         <v>3</v>
@@ -5044,15 +5039,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2670</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D269">
         <v>3</v>
@@ -5061,15 +5056,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2680</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -5078,15 +5073,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2690</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D271">
         <v>3</v>
@@ -5095,15 +5090,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2700</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -5112,15 +5107,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2710</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D273">
         <v>3</v>
@@ -5129,15 +5124,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2720</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -5146,15 +5141,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2730</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D275">
         <v>3</v>
@@ -5163,15 +5158,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2740</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -5180,15 +5175,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2750</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -5197,15 +5192,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2760</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D278">
         <v>3</v>
@@ -5214,15 +5209,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2770</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D279">
         <v>3</v>
@@ -5231,15 +5226,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2780</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D280">
         <v>3</v>
@@ -5248,15 +5243,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2790</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D281">
         <v>3</v>
@@ -5265,15 +5260,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2800</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D282">
         <v>3</v>
@@ -5282,15 +5277,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2810</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D283">
         <v>3</v>
@@ -5299,15 +5294,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2820</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D284">
         <v>3</v>
@@ -5316,15 +5311,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2830</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D285">
         <v>3</v>
@@ -5333,15 +5328,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2840</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D286">
         <v>3</v>
@@ -5350,15 +5345,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2850</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -5367,15 +5362,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2860</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -5384,15 +5379,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2870</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D289">
         <v>3</v>
@@ -5401,15 +5396,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2880</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D290">
         <v>3</v>
@@ -5418,15 +5413,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2890</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D291">
         <v>3</v>
@@ -5435,15 +5430,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2900</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D292">
         <v>3</v>
@@ -5452,15 +5447,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2910</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D293">
         <v>3</v>
@@ -5469,15 +5464,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2920</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -5486,15 +5481,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2930</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D295">
         <v>3</v>
@@ -5503,15 +5498,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2940</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -5520,15 +5515,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2950</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D297">
         <v>3</v>
@@ -5537,15 +5532,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2960</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -5554,15 +5549,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2970</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C299" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D299">
         <v>3</v>
@@ -5571,15 +5566,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2980</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D300">
         <v>3</v>
@@ -5588,15 +5583,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2990</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D301">
         <v>3</v>
@@ -5605,15 +5600,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3000</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C302" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D302">
         <v>3</v>
@@ -5622,15 +5617,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3010</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D303">
         <v>3</v>
@@ -5639,15 +5634,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3020</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D304">
         <v>3</v>
@@ -5656,15 +5651,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3030</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -5673,15 +5668,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3040</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C306" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D306">
         <v>3</v>
@@ -5690,15 +5685,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3050</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D307">
         <v>3</v>
@@ -5707,15 +5702,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3060</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C308" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D308">
         <v>3</v>
@@ -5724,15 +5719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3070</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -5741,15 +5736,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3080</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D310">
         <v>3</v>
@@ -5758,15 +5753,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3090</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -5775,15 +5770,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3100</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C312" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D312">
         <v>3</v>
@@ -5792,15 +5787,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3110</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D313">
         <v>3</v>
@@ -5809,15 +5804,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3120</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D314">
         <v>3</v>
@@ -5826,15 +5821,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3130</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D315">
         <v>3</v>
@@ -5843,15 +5838,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3140</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -5860,15 +5855,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3150</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D317">
         <v>3</v>
@@ -5877,15 +5872,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3160</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D318">
         <v>3</v>
@@ -5894,15 +5889,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3170</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D319">
         <v>3</v>
@@ -5911,15 +5906,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3180</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D320">
         <v>3</v>
@@ -5928,15 +5923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3190</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D321">
         <v>3</v>
@@ -5945,15 +5940,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3200</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D322">
         <v>3</v>
@@ -5962,15 +5957,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3210</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C323" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D323">
         <v>3</v>
@@ -5979,15 +5974,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3220</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D324">
         <v>3</v>
@@ -5996,15 +5991,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3230</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C325" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -6013,15 +6008,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3240</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D326">
         <v>3</v>
@@ -6030,15 +6025,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3250</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D327">
         <v>3</v>
@@ -6047,15 +6042,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3260</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D328">
         <v>3</v>
@@ -6064,15 +6059,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3270</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D329">
         <v>3</v>
@@ -6081,15 +6076,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3280</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D330">
         <v>3</v>
@@ -6098,15 +6093,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3290</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C331" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D331">
         <v>3</v>
@@ -6115,15 +6110,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3300</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D332">
         <v>3</v>
@@ -6132,15 +6127,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3310</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D333">
         <v>3</v>
@@ -6149,15 +6144,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3320</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D334">
         <v>3</v>
@@ -6166,15 +6161,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3330</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C335" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D335">
         <v>3</v>
@@ -6183,15 +6178,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3340</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C336" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D336">
         <v>3</v>
@@ -6200,15 +6195,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3350</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D337">
         <v>3</v>
@@ -6217,15 +6212,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3360</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C338" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -6234,15 +6229,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3370</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C339" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D339">
         <v>3</v>
@@ -6251,15 +6246,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3380</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -6268,15 +6263,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3390</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C341" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D341">
         <v>3</v>
@@ -6285,18 +6280,18 @@
         <v>3</v>
       </c>
       <c r="F341" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3400</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D342">
         <v>3</v>
@@ -6305,15 +6300,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3410</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C343" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D343">
         <v>3</v>
@@ -6322,15 +6317,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3420</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C344" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D344">
         <v>3</v>
@@ -6339,15 +6334,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3430</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C345" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D345">
         <v>3</v>
@@ -6356,15 +6351,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3440</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D346">
         <v>3</v>
@@ -6373,15 +6368,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3450</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D347">
         <v>3</v>
@@ -6390,15 +6385,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3460</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C348" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D348">
         <v>3</v>
@@ -6407,15 +6402,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3470</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D349">
         <v>3</v>
@@ -6424,15 +6419,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3480</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D350">
         <v>3</v>
@@ -6441,15 +6436,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3490</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D351">
         <v>3</v>
